--- a/mainexcel/squad4/МРК-23-2.xlsx
+++ b/mainexcel/squad4/МРК-23-2.xlsx
@@ -196,6 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -707,23 +708,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="8.140625"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875"/>
+    <col min="5" max="5" customWidth="true" style="2" width="15.7109375"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="18.0"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625"/>
+    <col min="10" max="10" customWidth="true" width="18.42578125"/>
+    <col min="11" max="11" customWidth="true" style="2" width="17.42578125"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="19.0"/>
+    <col min="15" max="15" customWidth="true" style="2" width="14.85546875"/>
+    <col min="16" max="16" customWidth="true" width="20.0"/>
+    <col min="17" max="17" customWidth="true" style="2" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1786,137 +1787,94 @@
   </sheetData>
   <mergeCells count="132">
     <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="M39:M40"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="G41:G42"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="M34:Q34"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="M35:M36"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="N37:Q37"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="M37:M38"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="M30:M31"/>
     <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="M32:M33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:J36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G32:G33"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="M26:M27"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M28:M29"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:P20"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
